--- a/TP1/docs/datosEjemplo.xlsx
+++ b/TP1/docs/datosEjemplo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchemile\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jchemile\Documents\geeklogbook\TP1-GRUPO7\TP1\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761BBB7B-0F7D-4725-B256-8DF43B7BDC2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06254FA6-E5CC-468F-96CE-A50072AD5A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2550" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{2D4C693A-CA56-44DF-B33B-0651A5528C26}"/>
+    <workbookView xWindow="14175" yWindow="-15240" windowWidth="12030" windowHeight="9480" xr2:uid="{2D4C693A-CA56-44DF-B33B-0651A5528C26}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Daniela</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Tiempo Tercero</t>
+  </si>
+  <si>
+    <t>Mirko</t>
   </si>
 </sst>
 </file>
@@ -96,12 +99,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -116,14 +125,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E2844B6-5B14-40EE-B2A9-9BCED81A89C5}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C10"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,118 +473,131 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
         <v>21.2</v>
       </c>
-      <c r="D2" s="3"/>
       <c r="E2" t="s">
         <v>12</v>
       </c>
       <c r="F2">
-        <v>9.3000000000000007</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>9.3000000000000007</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
       </c>
       <c r="F3">
-        <v>21.2</v>
+        <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="3">
         <v>9.1999999999999993</v>
       </c>
       <c r="E4" t="s">
         <v>14</v>
       </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>9.5</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
         <v>13.2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>9.5</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>9.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="3">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
